--- a/stackexchange_data.xlsx
+++ b/stackexchange_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,78 +462,249 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>231767</v>
+        <v>74535610</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>What does the &amp;quot;yield&amp;quot; keyword do?</t>
+          <t>Gtfs files wont work in Open Trip Planner</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1224800471</v>
+        <v>1669132912</v>
       </c>
       <c r="D2" t="n">
-        <v>231855</v>
+        <v>75194855</v>
       </c>
       <c r="E2" t="n">
-        <v>1224802124</v>
+        <v>1674318672</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>394809</v>
+        <v>75191880</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Does Python have a ternary conditional operator?</t>
+          <t>Windows producing UTF8 sequence for ANSI version WM_CHAR? Why I cannot see it?</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1230366738</v>
+        <v>1674287729</v>
       </c>
       <c r="D3" t="n">
-        <v>394814</v>
+        <v>75193842</v>
       </c>
       <c r="E3" t="n">
-        <v>1230367459</v>
+        <v>1674309203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100003</v>
+        <v>75194723</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>What are metaclasses in Python?</t>
+          <t>How to get value of inputs onChange when they are inside map function React</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1221804646</v>
+        <v>1674317474</v>
       </c>
       <c r="D4" t="n">
-        <v>6581949</v>
+        <v>75194850</v>
       </c>
       <c r="E4" t="n">
-        <v>1309865390</v>
+        <v>1674318602</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>38987</v>
+        <v>75192105</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>How do I merge two dictionaries in a single expression?</t>
+          <t>How to fetch all changes since latest CKServerChangeToken?</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1220341470</v>
+        <v>1674290797</v>
       </c>
       <c r="D5" t="n">
-        <v>26853961</v>
+        <v>75194849</v>
       </c>
       <c r="E5" t="n">
-        <v>1415657508</v>
+        <v>1674318590</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>75192884</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Why is this Android Studio error happening? and How can I solve it?</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1674299603</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75194848</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1674318588</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>75194329</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>How to find out if apache on windows is running on http or https</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1674313836</v>
+      </c>
+      <c r="D7" t="n">
+        <v>75194847</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1674318586</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>75190739</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CSS Selector found with rvest and not with RSelenium</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1674266267</v>
+      </c>
+      <c r="D8" t="n">
+        <v>75194846</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1674318582</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>47624459</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Web Deploy &amp;quot;Remove additional files at destination&amp;quot; with exception</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1512343429</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75194845</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1674318579</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>75194819</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>How to achieve this pie chart in reactjs?</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1674318409</v>
+      </c>
+      <c r="D10" t="n">
+        <v>75194844</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1674318578</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>75172191</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>kubernetes - Why is there a max pods per node?</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1674131109</v>
+      </c>
+      <c r="D11" t="n">
+        <v>75173230</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1674136106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>75194702</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>How to create a select menu with search without JS</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1674317323</v>
+      </c>
+      <c r="D12" t="n">
+        <v>75194839</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1674318566</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>75190729</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>An awk script without hard-coded field information</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1674266117</v>
+      </c>
+      <c r="D13" t="n">
+        <v>75194838</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1674318565</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>19060586</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>.htaccess/.htpasswd 500 Internal Server Error</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1380318398</v>
+      </c>
+      <c r="D14" t="n">
+        <v>27323916</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1417810281</v>
       </c>
     </row>
   </sheetData>
